--- a/cleaning/cleaning_info.xlsx
+++ b/cleaning/cleaning_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Jacobsen\DS_Tue_local\DS-Project\cleaning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D238212-D6B9-4BDA-B3EC-18FC408D427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3474069B-74FE-486E-85B9-3D8F1243F56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{975DDA43-B140-452B-9C48-2BE8E7BE5F45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{975DDA43-B140-452B-9C48-2BE8E7BE5F45}"/>
   </bookViews>
   <sheets>
     <sheet name="fbref_match" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="528">
   <si>
     <t>schedule_Date</t>
   </si>
@@ -1050,15 +1050,9 @@
     <t>xg_metric</t>
   </si>
   <si>
-    <t>Montag klären</t>
-  </si>
-  <si>
     <t>Match ID</t>
   </si>
   <si>
-    <t>drop before merge too? -this is the only difference between drop_before_db_insert, drop_before_merge</t>
-  </si>
-  <si>
     <t>sql_data_type</t>
   </si>
   <si>
@@ -1575,9 +1569,6 @@
     <t>match_report</t>
   </si>
   <si>
-    <t xml:space="preserve">team name -&gt; irrelevant </t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -1624,13 +1615,19 @@
   </si>
   <si>
     <t>season_str</t>
+  </si>
+  <si>
+    <t>Irrelevant (can join names from matches table)</t>
+  </si>
+  <si>
+    <t>create matchstats table strings 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1655,20 +1652,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1683,16 +1673,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1700,23 +1685,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2031,9 +2024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19A1CE6-8CE0-4DB2-AB5B-4AC53D47C02B}">
   <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2042,12 +2035,12 @@
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.109375" customWidth="1"/>
     <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="4"/>
+    <col min="12" max="12" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -2061,13 +2054,13 @@
         <v>335</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>334</v>
@@ -2076,13 +2069,13 @@
         <v>333</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>337</v>
+      <c r="L1" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>527</v>
@@ -2096,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
         <v>327</v>
@@ -2110,9 +2103,13 @@
       <c r="J2" t="s">
         <v>328</v>
       </c>
-      <c r="M2" t="str">
+      <c r="L2" s="6" t="str">
         <f>_xlfn.CONCAT(D2," ",E2,",")</f>
         <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(L2=" ,","",L2)</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2123,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
         <v>327</v>
@@ -2137,9 +2134,13 @@
       <c r="J3" t="s">
         <v>328</v>
       </c>
+      <c r="L3" s="6" t="str">
+        <f t="shared" ref="L3:L66" si="0">_xlfn.CONCAT(D3," ",E3,",")</f>
+        <v xml:space="preserve"> ,</v>
+      </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="0">_xlfn.CONCAT(D3," ",E3,",")</f>
-        <v xml:space="preserve"> ,</v>
+        <f t="shared" ref="M3:M66" si="1">IF(L3=" ,","",L3)</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2150,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
         <v>327</v>
@@ -2164,9 +2165,13 @@
       <c r="J4" t="s">
         <v>328</v>
       </c>
-      <c r="M4" t="str">
+      <c r="L4" s="6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2177,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
         <v>327</v>
@@ -2191,9 +2196,13 @@
       <c r="J5" t="s">
         <v>328</v>
       </c>
-      <c r="M5" t="str">
+      <c r="L5" s="6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2204,13 +2213,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>513</v>
+        <v>344</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="F6" t="s">
         <v>328</v>
@@ -2224,8 +2233,12 @@
       <c r="J6" t="s">
         <v>328</v>
       </c>
+      <c r="L6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>venue text,</v>
+      </c>
       <c r="M6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>venue text,</v>
       </c>
     </row>
@@ -2237,13 +2250,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>514</v>
+        <v>345</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="F7" t="s">
         <v>328</v>
@@ -2257,8 +2270,12 @@
       <c r="J7" t="s">
         <v>328</v>
       </c>
+      <c r="L7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>result matchresult,</v>
+      </c>
       <c r="M7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>result matchresult,</v>
       </c>
     </row>
@@ -2270,13 +2287,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>515</v>
+        <v>346</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F8" t="s">
         <v>328</v>
@@ -2290,8 +2307,12 @@
       <c r="J8" t="s">
         <v>328</v>
       </c>
+      <c r="L8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>gf int,</v>
+      </c>
       <c r="M8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>gf int,</v>
       </c>
     </row>
@@ -2303,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>515</v>
+        <v>347</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F9" t="s">
         <v>328</v>
@@ -2323,8 +2344,12 @@
       <c r="J9" t="s">
         <v>328</v>
       </c>
+      <c r="L9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ga int,</v>
+      </c>
       <c r="M9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ga int,</v>
       </c>
     </row>
@@ -2336,11 +2361,14 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" t="s">
         <v>327</v>
       </c>
+      <c r="G10" t="s">
+        <v>526</v>
+      </c>
       <c r="H10" t="s">
         <v>328</v>
       </c>
@@ -2350,12 +2378,13 @@
       <c r="J10" t="s">
         <v>328</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="M10" t="str">
+      <c r="L10" s="6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2366,13 +2395,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>516</v>
+        <v>349</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F11" t="s">
         <v>328</v>
@@ -2386,8 +2415,12 @@
       <c r="J11" t="s">
         <v>327</v>
       </c>
+      <c r="L11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>xg float,</v>
+      </c>
       <c r="M11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>xg float,</v>
       </c>
     </row>
@@ -2399,13 +2432,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>516</v>
+        <v>350</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F12" t="s">
         <v>328</v>
@@ -2419,11 +2452,12 @@
       <c r="J12" t="s">
         <v>327</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>339</v>
+      <c r="L12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>xga float,</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>xga float,</v>
       </c>
     </row>
@@ -2435,7 +2469,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F13" t="s">
         <v>327</v>
@@ -2452,9 +2486,13 @@
       <c r="J13" t="s">
         <v>328</v>
       </c>
-      <c r="M13" t="str">
+      <c r="L13" s="6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2465,13 +2503,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>515</v>
+        <v>352</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F14" t="s">
         <v>328</v>
@@ -2485,8 +2523,12 @@
       <c r="J14" t="s">
         <v>328</v>
       </c>
+      <c r="L14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>attendance int,</v>
+      </c>
       <c r="M14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>attendance int,</v>
       </c>
     </row>
@@ -2498,13 +2540,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>513</v>
+        <v>353</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="F15" t="s">
         <v>328</v>
@@ -2518,8 +2560,12 @@
       <c r="J15" t="s">
         <v>328</v>
       </c>
+      <c r="L15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>captain text,</v>
+      </c>
       <c r="M15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>captain text,</v>
       </c>
     </row>
@@ -2531,13 +2577,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>513</v>
+        <v>354</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="F16" t="s">
         <v>328</v>
@@ -2551,8 +2597,12 @@
       <c r="J16" t="s">
         <v>328</v>
       </c>
+      <c r="L16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>formation text,</v>
+      </c>
       <c r="M16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>formation text,</v>
       </c>
     </row>
@@ -2564,13 +2614,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>513</v>
+        <v>355</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="F17" t="s">
         <v>328</v>
@@ -2584,8 +2634,12 @@
       <c r="J17" t="s">
         <v>328</v>
       </c>
+      <c r="L17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>referee text,</v>
+      </c>
       <c r="M17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>referee text,</v>
       </c>
     </row>
@@ -2594,7 +2648,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F18" t="s">
         <v>327</v>
@@ -2611,9 +2665,13 @@
       <c r="J18" t="s">
         <v>328</v>
       </c>
-      <c r="M18" t="str">
+      <c r="L18" s="6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2621,7 +2679,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F19" t="s">
         <v>327</v>
@@ -2638,26 +2696,30 @@
       <c r="J19" t="s">
         <v>328</v>
       </c>
-      <c r="M19" t="str">
+      <c r="L19" s="6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ,</v>
       </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>513</v>
+        <v>357</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="F20" t="s">
         <v>328</v>
@@ -2671,8 +2733,12 @@
       <c r="J20" t="s">
         <v>328</v>
       </c>
+      <c r="L20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>season_str text,</v>
+      </c>
       <c r="M20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>season_str text,</v>
       </c>
     </row>
@@ -2684,13 +2750,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>360</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>523</v>
+        <v>358</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="F21" t="s">
         <v>328</v>
@@ -2704,8 +2770,12 @@
       <c r="J21" t="s">
         <v>328</v>
       </c>
+      <c r="L21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>league_id int REFERENCES leagues (id) ,</v>
+      </c>
       <c r="M21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>league_id int REFERENCES leagues (id) ,</v>
       </c>
     </row>
@@ -2717,13 +2787,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>517</v>
+        <v>359</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="F22" t="s">
         <v>328</v>
@@ -2731,14 +2801,18 @@
       <c r="H22" t="s">
         <v>328</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>327</v>
       </c>
       <c r="J22" t="s">
         <v>328</v>
       </c>
+      <c r="L22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>team_id int REFERENCES teams (id) NOT NULL,</v>
+      </c>
       <c r="M22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>team_id int REFERENCES teams (id) NOT NULL,</v>
       </c>
     </row>
@@ -2750,13 +2824,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>362</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>517</v>
+        <v>360</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="F23" t="s">
         <v>328</v>
@@ -2764,32 +2838,36 @@
       <c r="H23" t="s">
         <v>328</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>327</v>
       </c>
       <c r="J23" t="s">
         <v>328</v>
       </c>
-      <c r="M23" t="str">
+      <c r="L23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>opponent_id int REFERENCES teams (id) NOT NULL,</v>
       </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>opponent_id int REFERENCES teams (id) NOT NULL,</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>520</v>
+        <v>361</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="F24" t="s">
         <v>328</v>
@@ -2797,14 +2875,18 @@
       <c r="H24" t="s">
         <v>328</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>327</v>
       </c>
       <c r="J24" t="s">
         <v>328</v>
       </c>
+      <c r="L24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>match_id int REFERENCES matches (id),</v>
+      </c>
       <c r="M24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>match_id int REFERENCES matches (id),</v>
       </c>
     </row>
@@ -2816,13 +2898,13 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>515</v>
+        <v>362</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F25" t="s">
         <v>328</v>
@@ -2836,8 +2918,12 @@
       <c r="J25" t="s">
         <v>328</v>
       </c>
+      <c r="L25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_gls int,</v>
+      </c>
       <c r="M25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_gls int,</v>
       </c>
     </row>
@@ -2849,13 +2935,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D26" t="s">
-        <v>365</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>515</v>
+        <v>363</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F26" t="s">
         <v>328</v>
@@ -2869,8 +2955,12 @@
       <c r="J26" t="s">
         <v>328</v>
       </c>
+      <c r="L26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_sh int,</v>
+      </c>
       <c r="M26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_sh int,</v>
       </c>
     </row>
@@ -2882,13 +2972,13 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D27" t="s">
-        <v>366</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>515</v>
+        <v>364</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F27" t="s">
         <v>328</v>
@@ -2902,8 +2992,12 @@
       <c r="J27" t="s">
         <v>328</v>
       </c>
+      <c r="L27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_sot int,</v>
+      </c>
       <c r="M27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_sot int,</v>
       </c>
     </row>
@@ -2915,13 +3009,13 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D28" t="s">
-        <v>367</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>516</v>
+        <v>365</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F28" t="s">
         <v>328</v>
@@ -2935,8 +3029,12 @@
       <c r="J28" t="s">
         <v>328</v>
       </c>
+      <c r="L28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_sot_perc float,</v>
+      </c>
       <c r="M28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_sot_perc float,</v>
       </c>
     </row>
@@ -2948,13 +3046,13 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D29" t="s">
-        <v>368</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>516</v>
+        <v>366</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F29" t="s">
         <v>328</v>
@@ -2968,8 +3066,12 @@
       <c r="J29" t="s">
         <v>328</v>
       </c>
+      <c r="L29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_g_per_sh float,</v>
+      </c>
       <c r="M29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_g_per_sh float,</v>
       </c>
     </row>
@@ -2981,13 +3083,13 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D30" t="s">
-        <v>369</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>516</v>
+        <v>367</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F30" t="s">
         <v>328</v>
@@ -3001,8 +3103,12 @@
       <c r="J30" t="s">
         <v>328</v>
       </c>
+      <c r="L30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_g_per_sot float,</v>
+      </c>
       <c r="M30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_g_per_sot float,</v>
       </c>
     </row>
@@ -3014,13 +3120,13 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D31" t="s">
-        <v>370</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>516</v>
+        <v>368</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F31" t="s">
         <v>328</v>
@@ -3034,8 +3140,12 @@
       <c r="J31" t="s">
         <v>328</v>
       </c>
+      <c r="L31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_dist float,</v>
+      </c>
       <c r="M31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_dist float,</v>
       </c>
     </row>
@@ -3047,13 +3157,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D32" t="s">
-        <v>371</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>515</v>
+        <v>369</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F32" t="s">
         <v>328</v>
@@ -3067,8 +3177,12 @@
       <c r="J32" t="s">
         <v>328</v>
       </c>
+      <c r="L32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_fk int,</v>
+      </c>
       <c r="M32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_fk int,</v>
       </c>
     </row>
@@ -3080,13 +3194,13 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D33" t="s">
-        <v>372</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>515</v>
+        <v>370</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F33" t="s">
         <v>328</v>
@@ -3100,8 +3214,12 @@
       <c r="J33" t="s">
         <v>328</v>
       </c>
+      <c r="L33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_pk int,</v>
+      </c>
       <c r="M33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_pk int,</v>
       </c>
     </row>
@@ -3113,13 +3231,13 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D34" t="s">
-        <v>373</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>515</v>
+        <v>371</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F34" t="s">
         <v>328</v>
@@ -3133,8 +3251,12 @@
       <c r="J34" t="s">
         <v>328</v>
       </c>
+      <c r="L34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_standard_pkatt int,</v>
+      </c>
       <c r="M34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_standard_pkatt int,</v>
       </c>
     </row>
@@ -3146,19 +3268,16 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>374</v>
-      </c>
-      <c r="D35" t="s">
-        <v>374</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>516</v>
+        <v>372</v>
       </c>
       <c r="F35" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="G35" t="s">
+        <v>330</v>
       </c>
       <c r="H35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I35" t="s">
         <v>328</v>
@@ -3166,9 +3285,13 @@
       <c r="J35" t="s">
         <v>327</v>
       </c>
+      <c r="L35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
       <c r="M35" t="str">
-        <f t="shared" si="0"/>
-        <v>shooting_expected_xg float,</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -3179,13 +3302,13 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D36" t="s">
-        <v>375</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>516</v>
+        <v>373</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F36" t="s">
         <v>328</v>
@@ -3199,8 +3322,12 @@
       <c r="J36" t="s">
         <v>327</v>
       </c>
+      <c r="L36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_expected_npxg float,</v>
+      </c>
       <c r="M36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_expected_npxg float,</v>
       </c>
     </row>
@@ -3212,13 +3339,13 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D37" t="s">
-        <v>376</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>516</v>
+        <v>374</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F37" t="s">
         <v>328</v>
@@ -3232,8 +3359,12 @@
       <c r="J37" t="s">
         <v>327</v>
       </c>
+      <c r="L37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_expected_npxg_per_sh float,</v>
+      </c>
       <c r="M37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_expected_npxg_per_sh float,</v>
       </c>
     </row>
@@ -3245,13 +3376,13 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D38" t="s">
-        <v>377</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>516</v>
+        <v>375</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F38" t="s">
         <v>328</v>
@@ -3265,8 +3396,12 @@
       <c r="J38" t="s">
         <v>327</v>
       </c>
+      <c r="L38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_expected_g_minus_xg float,</v>
+      </c>
       <c r="M38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_expected_g_minus_xg float,</v>
       </c>
     </row>
@@ -3278,13 +3413,13 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D39" t="s">
-        <v>378</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>516</v>
+        <v>376</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F39" t="s">
         <v>328</v>
@@ -3298,8 +3433,12 @@
       <c r="J39" t="s">
         <v>327</v>
       </c>
+      <c r="L39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>shooting_expected_npg_minus_xg float,</v>
+      </c>
       <c r="M39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>shooting_expected_npg_minus_xg float,</v>
       </c>
     </row>
@@ -3311,13 +3450,13 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D40" t="s">
-        <v>379</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>515</v>
+        <v>377</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F40" t="s">
         <v>328</v>
@@ -3331,8 +3470,12 @@
       <c r="J40" t="s">
         <v>328</v>
       </c>
+      <c r="L40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_performance_sota int,</v>
+      </c>
       <c r="M40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_performance_sota int,</v>
       </c>
     </row>
@@ -3344,7 +3487,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F41" t="s">
         <v>327</v>
@@ -3361,9 +3504,13 @@
       <c r="J41" t="s">
         <v>328</v>
       </c>
-      <c r="M41" t="str">
+      <c r="L41" s="6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> ,</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3374,13 +3521,13 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D42" t="s">
-        <v>381</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>515</v>
+        <v>379</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F42" t="s">
         <v>328</v>
@@ -3394,8 +3541,12 @@
       <c r="J42" t="s">
         <v>328</v>
       </c>
+      <c r="L42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_performance_saves int,</v>
+      </c>
       <c r="M42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_performance_saves int,</v>
       </c>
     </row>
@@ -3407,13 +3558,13 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D43" t="s">
-        <v>382</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>516</v>
+        <v>380</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F43" t="s">
         <v>328</v>
@@ -3427,8 +3578,12 @@
       <c r="J43" t="s">
         <v>328</v>
       </c>
+      <c r="L43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_performance_save_perc float,</v>
+      </c>
       <c r="M43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_performance_save_perc float,</v>
       </c>
     </row>
@@ -3440,13 +3595,13 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D44" t="s">
-        <v>383</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>515</v>
+        <v>381</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F44" t="s">
         <v>328</v>
@@ -3460,8 +3615,12 @@
       <c r="J44" t="s">
         <v>328</v>
       </c>
+      <c r="L44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_performance_cs int,</v>
+      </c>
       <c r="M44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_performance_cs int,</v>
       </c>
     </row>
@@ -3473,13 +3632,13 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D45" t="s">
-        <v>384</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>516</v>
+        <v>382</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F45" t="s">
         <v>328</v>
@@ -3493,8 +3652,12 @@
       <c r="J45" t="s">
         <v>327</v>
       </c>
+      <c r="L45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_performance_psxg float,</v>
+      </c>
       <c r="M45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_performance_psxg float,</v>
       </c>
     </row>
@@ -3506,13 +3669,13 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D46" t="s">
-        <v>385</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>516</v>
+        <v>383</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F46" t="s">
         <v>328</v>
@@ -3526,8 +3689,12 @@
       <c r="J46" t="s">
         <v>327</v>
       </c>
+      <c r="L46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_performance_psxg_plus_minus float,</v>
+      </c>
       <c r="M46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_performance_psxg_plus_minus float,</v>
       </c>
     </row>
@@ -3539,13 +3706,13 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D47" t="s">
-        <v>386</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>515</v>
+        <v>384</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F47" t="s">
         <v>328</v>
@@ -3559,8 +3726,12 @@
       <c r="J47" t="s">
         <v>328</v>
       </c>
+      <c r="L47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_penaltykicks_pkatt int,</v>
+      </c>
       <c r="M47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_penaltykicks_pkatt int,</v>
       </c>
     </row>
@@ -3572,13 +3743,13 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D48" t="s">
-        <v>387</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>515</v>
+        <v>385</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F48" t="s">
         <v>328</v>
@@ -3592,8 +3763,12 @@
       <c r="J48" t="s">
         <v>328</v>
       </c>
+      <c r="L48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_penaltykicks_pka int,</v>
+      </c>
       <c r="M48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_penaltykicks_pka int,</v>
       </c>
     </row>
@@ -3605,13 +3780,13 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D49" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>515</v>
+        <v>386</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F49" t="s">
         <v>328</v>
@@ -3625,8 +3800,12 @@
       <c r="J49" t="s">
         <v>328</v>
       </c>
+      <c r="L49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_penaltykicks_pksv int,</v>
+      </c>
       <c r="M49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_penaltykicks_pksv int,</v>
       </c>
     </row>
@@ -3638,13 +3817,13 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D50" t="s">
-        <v>389</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>515</v>
+        <v>387</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F50" t="s">
         <v>328</v>
@@ -3658,8 +3837,12 @@
       <c r="J50" t="s">
         <v>328</v>
       </c>
+      <c r="L50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_penaltykicks_pkm int,</v>
+      </c>
       <c r="M50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_penaltykicks_pkm int,</v>
       </c>
     </row>
@@ -3671,13 +3854,13 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D51" t="s">
-        <v>390</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>515</v>
+        <v>388</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F51" t="s">
         <v>328</v>
@@ -3691,8 +3874,12 @@
       <c r="J51" t="s">
         <v>328</v>
       </c>
+      <c r="L51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_launched_cmp int,</v>
+      </c>
       <c r="M51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_launched_cmp int,</v>
       </c>
     </row>
@@ -3704,13 +3891,13 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D52" t="s">
-        <v>391</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>515</v>
+        <v>389</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F52" t="s">
         <v>328</v>
@@ -3724,8 +3911,12 @@
       <c r="J52" t="s">
         <v>328</v>
       </c>
+      <c r="L52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_launched_att int,</v>
+      </c>
       <c r="M52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_launched_att int,</v>
       </c>
     </row>
@@ -3737,13 +3928,13 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D53" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>516</v>
+        <v>390</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F53" t="s">
         <v>328</v>
@@ -3757,8 +3948,12 @@
       <c r="J53" t="s">
         <v>328</v>
       </c>
+      <c r="L53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_launched_cmp_perc float,</v>
+      </c>
       <c r="M53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_launched_cmp_perc float,</v>
       </c>
     </row>
@@ -3770,13 +3965,13 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D54" t="s">
-        <v>393</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>515</v>
+        <v>391</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F54" t="s">
         <v>328</v>
@@ -3790,8 +3985,12 @@
       <c r="J54" t="s">
         <v>328</v>
       </c>
+      <c r="L54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_passes_att int,</v>
+      </c>
       <c r="M54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_passes_att int,</v>
       </c>
     </row>
@@ -3803,13 +4002,13 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D55" t="s">
-        <v>394</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>515</v>
+        <v>392</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F55" t="s">
         <v>328</v>
@@ -3823,8 +4022,12 @@
       <c r="J55" t="s">
         <v>328</v>
       </c>
+      <c r="L55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_passes_thr int,</v>
+      </c>
       <c r="M55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_passes_thr int,</v>
       </c>
     </row>
@@ -3836,13 +4039,13 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D56" t="s">
-        <v>395</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>516</v>
+        <v>393</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F56" t="s">
         <v>328</v>
@@ -3856,8 +4059,12 @@
       <c r="J56" t="s">
         <v>328</v>
       </c>
+      <c r="L56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_passes_launch_perc float,</v>
+      </c>
       <c r="M56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_passes_launch_perc float,</v>
       </c>
     </row>
@@ -3869,13 +4076,13 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D57" t="s">
-        <v>396</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>516</v>
+        <v>394</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F57" t="s">
         <v>328</v>
@@ -3889,8 +4096,12 @@
       <c r="J57" t="s">
         <v>328</v>
       </c>
+      <c r="L57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_passes_avglen float,</v>
+      </c>
       <c r="M57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_passes_avglen float,</v>
       </c>
     </row>
@@ -3902,13 +4113,13 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D58" t="s">
-        <v>397</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>515</v>
+        <v>395</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F58" t="s">
         <v>328</v>
@@ -3922,8 +4133,12 @@
       <c r="J58" t="s">
         <v>328</v>
       </c>
+      <c r="L58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_goalkicks_att int,</v>
+      </c>
       <c r="M58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_goalkicks_att int,</v>
       </c>
     </row>
@@ -3935,13 +4150,13 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D59" t="s">
-        <v>398</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>516</v>
+        <v>396</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F59" t="s">
         <v>328</v>
@@ -3955,8 +4170,12 @@
       <c r="J59" t="s">
         <v>328</v>
       </c>
+      <c r="L59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_goalkicks_launch_perc float,</v>
+      </c>
       <c r="M59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_goalkicks_launch_perc float,</v>
       </c>
     </row>
@@ -3968,13 +4187,13 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D60" t="s">
-        <v>399</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>516</v>
+        <v>397</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F60" t="s">
         <v>328</v>
@@ -3988,8 +4207,12 @@
       <c r="J60" t="s">
         <v>328</v>
       </c>
+      <c r="L60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_goalkicks_avglen float,</v>
+      </c>
       <c r="M60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_goalkicks_avglen float,</v>
       </c>
     </row>
@@ -4001,13 +4224,13 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D61" t="s">
-        <v>400</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>515</v>
+        <v>398</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F61" t="s">
         <v>328</v>
@@ -4021,8 +4244,12 @@
       <c r="J61" t="s">
         <v>328</v>
       </c>
+      <c r="L61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_crosses_opp int,</v>
+      </c>
       <c r="M61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_crosses_opp int,</v>
       </c>
     </row>
@@ -4034,13 +4261,13 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D62" t="s">
-        <v>401</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>515</v>
+        <v>399</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F62" t="s">
         <v>328</v>
@@ -4054,8 +4281,12 @@
       <c r="J62" t="s">
         <v>328</v>
       </c>
+      <c r="L62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_crosses_stp int,</v>
+      </c>
       <c r="M62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_crosses_stp int,</v>
       </c>
     </row>
@@ -4067,13 +4298,13 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D63" t="s">
-        <v>402</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>516</v>
+        <v>400</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -4087,8 +4318,12 @@
       <c r="J63" t="s">
         <v>328</v>
       </c>
+      <c r="L63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_crosses_stp_perc float,</v>
+      </c>
       <c r="M63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_crosses_stp_perc float,</v>
       </c>
     </row>
@@ -4100,13 +4335,13 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D64" t="s">
-        <v>403</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>515</v>
+        <v>401</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F64" t="s">
         <v>328</v>
@@ -4120,8 +4355,12 @@
       <c r="J64" t="s">
         <v>328</v>
       </c>
+      <c r="L64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_sweeper_number_opa int,</v>
+      </c>
       <c r="M64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_sweeper_number_opa int,</v>
       </c>
     </row>
@@ -4133,13 +4372,13 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D65" t="s">
-        <v>404</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>516</v>
+        <v>402</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F65" t="s">
         <v>328</v>
@@ -4153,8 +4392,12 @@
       <c r="J65" t="s">
         <v>328</v>
       </c>
+      <c r="L65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>keeper_sweeper_avgdist float,</v>
+      </c>
       <c r="M65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keeper_sweeper_avgdist float,</v>
       </c>
     </row>
@@ -4166,13 +4409,13 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D66" t="s">
-        <v>405</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>515</v>
+        <v>403</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F66" t="s">
         <v>328</v>
@@ -4186,8 +4429,12 @@
       <c r="J66" t="s">
         <v>328</v>
       </c>
+      <c r="L66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>passing_total_cmp int,</v>
+      </c>
       <c r="M66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>passing_total_cmp int,</v>
       </c>
     </row>
@@ -4199,13 +4446,13 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D67" t="s">
-        <v>406</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>515</v>
+        <v>404</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F67" t="s">
         <v>328</v>
@@ -4219,8 +4466,12 @@
       <c r="J67" t="s">
         <v>328</v>
       </c>
+      <c r="L67" s="6" t="str">
+        <f t="shared" ref="L67:L130" si="2">_xlfn.CONCAT(D67," ",E67,",")</f>
+        <v>passing_total_att int,</v>
+      </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M130" si="1">_xlfn.CONCAT(D67," ",E67,",")</f>
+        <f t="shared" ref="M67:M130" si="3">IF(L67=" ,","",L67)</f>
         <v>passing_total_att int,</v>
       </c>
     </row>
@@ -4232,13 +4483,13 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D68" t="s">
-        <v>407</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>516</v>
+        <v>405</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F68" t="s">
         <v>328</v>
@@ -4252,8 +4503,12 @@
       <c r="J68" t="s">
         <v>328</v>
       </c>
+      <c r="L68" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_total_cmp_perc float,</v>
+      </c>
       <c r="M68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_total_cmp_perc float,</v>
       </c>
     </row>
@@ -4265,13 +4520,13 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D69" t="s">
-        <v>408</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>516</v>
+        <v>406</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F69" t="s">
         <v>328</v>
@@ -4285,8 +4540,12 @@
       <c r="J69" t="s">
         <v>328</v>
       </c>
+      <c r="L69" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_total_totdist float,</v>
+      </c>
       <c r="M69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_total_totdist float,</v>
       </c>
     </row>
@@ -4298,13 +4557,13 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D70" t="s">
-        <v>409</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>516</v>
+        <v>407</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F70" t="s">
         <v>328</v>
@@ -4318,8 +4577,12 @@
       <c r="J70" t="s">
         <v>328</v>
       </c>
+      <c r="L70" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_total_prgdist float,</v>
+      </c>
       <c r="M70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_total_prgdist float,</v>
       </c>
     </row>
@@ -4331,13 +4594,13 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D71" t="s">
-        <v>410</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>515</v>
+        <v>408</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F71" t="s">
         <v>328</v>
@@ -4351,8 +4614,12 @@
       <c r="J71" t="s">
         <v>328</v>
       </c>
+      <c r="L71" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_short_cmp int,</v>
+      </c>
       <c r="M71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_short_cmp int,</v>
       </c>
     </row>
@@ -4364,13 +4631,13 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D72" t="s">
-        <v>411</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>515</v>
+        <v>409</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F72" t="s">
         <v>328</v>
@@ -4384,8 +4651,12 @@
       <c r="J72" t="s">
         <v>328</v>
       </c>
+      <c r="L72" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_short_att int,</v>
+      </c>
       <c r="M72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_short_att int,</v>
       </c>
     </row>
@@ -4397,13 +4668,13 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D73" t="s">
-        <v>412</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>516</v>
+        <v>410</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F73" t="s">
         <v>328</v>
@@ -4417,8 +4688,12 @@
       <c r="J73" t="s">
         <v>328</v>
       </c>
+      <c r="L73" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_short_cmp_perc float,</v>
+      </c>
       <c r="M73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_short_cmp_perc float,</v>
       </c>
     </row>
@@ -4430,13 +4705,13 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
-        <v>413</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>515</v>
+        <v>411</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F74" t="s">
         <v>328</v>
@@ -4450,8 +4725,12 @@
       <c r="J74" t="s">
         <v>328</v>
       </c>
+      <c r="L74" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_medium_cmp int,</v>
+      </c>
       <c r="M74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_medium_cmp int,</v>
       </c>
     </row>
@@ -4463,13 +4742,13 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D75" t="s">
-        <v>414</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>515</v>
+        <v>412</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F75" t="s">
         <v>328</v>
@@ -4483,8 +4762,12 @@
       <c r="J75" t="s">
         <v>328</v>
       </c>
+      <c r="L75" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_medium_att int,</v>
+      </c>
       <c r="M75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_medium_att int,</v>
       </c>
     </row>
@@ -4496,13 +4779,13 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D76" t="s">
-        <v>415</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>516</v>
+        <v>413</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F76" t="s">
         <v>328</v>
@@ -4516,8 +4799,12 @@
       <c r="J76" t="s">
         <v>328</v>
       </c>
+      <c r="L76" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_medium_cmp_perc float,</v>
+      </c>
       <c r="M76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_medium_cmp_perc float,</v>
       </c>
     </row>
@@ -4529,13 +4816,13 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D77" t="s">
-        <v>416</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>515</v>
+        <v>414</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F77" t="s">
         <v>328</v>
@@ -4549,8 +4836,12 @@
       <c r="J77" t="s">
         <v>328</v>
       </c>
+      <c r="L77" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_long_cmp int,</v>
+      </c>
       <c r="M77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_long_cmp int,</v>
       </c>
     </row>
@@ -4562,13 +4853,13 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D78" t="s">
-        <v>417</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>515</v>
+        <v>415</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F78" t="s">
         <v>328</v>
@@ -4582,8 +4873,12 @@
       <c r="J78" t="s">
         <v>328</v>
       </c>
+      <c r="L78" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_long_att int,</v>
+      </c>
       <c r="M78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_long_att int,</v>
       </c>
     </row>
@@ -4595,13 +4890,13 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D79" t="s">
-        <v>418</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>516</v>
+        <v>416</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F79" t="s">
         <v>328</v>
@@ -4615,8 +4910,12 @@
       <c r="J79" t="s">
         <v>328</v>
       </c>
+      <c r="L79" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_long_cmp_perc float,</v>
+      </c>
       <c r="M79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_long_cmp_perc float,</v>
       </c>
     </row>
@@ -4628,13 +4927,13 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D80" t="s">
-        <v>419</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>515</v>
+        <v>417</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F80" t="s">
         <v>328</v>
@@ -4648,8 +4947,12 @@
       <c r="J80" t="s">
         <v>328</v>
       </c>
+      <c r="L80" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_attacking_ast int,</v>
+      </c>
       <c r="M80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_attacking_ast int,</v>
       </c>
     </row>
@@ -4661,13 +4964,13 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D81" t="s">
-        <v>420</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>516</v>
+        <v>418</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F81" t="s">
         <v>328</v>
@@ -4681,8 +4984,12 @@
       <c r="J81" t="s">
         <v>327</v>
       </c>
+      <c r="L81" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_attacking_xag float,</v>
+      </c>
       <c r="M81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_attacking_xag float,</v>
       </c>
     </row>
@@ -4694,13 +5001,13 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D82" t="s">
-        <v>421</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>516</v>
+        <v>419</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F82" t="s">
         <v>328</v>
@@ -4714,8 +5021,12 @@
       <c r="J82" t="s">
         <v>327</v>
       </c>
+      <c r="L82" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_attacking_xa float,</v>
+      </c>
       <c r="M82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_attacking_xa float,</v>
       </c>
     </row>
@@ -4727,13 +5038,13 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D83" t="s">
-        <v>422</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>515</v>
+        <v>420</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F83" t="s">
         <v>328</v>
@@ -4747,8 +5058,12 @@
       <c r="J83" t="s">
         <v>328</v>
       </c>
+      <c r="L83" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_attacking_kp int,</v>
+      </c>
       <c r="M83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_attacking_kp int,</v>
       </c>
     </row>
@@ -4760,13 +5075,13 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D84" t="s">
-        <v>423</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>515</v>
+        <v>421</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F84" t="s">
         <v>328</v>
@@ -4780,8 +5095,12 @@
       <c r="J84" t="s">
         <v>328</v>
       </c>
+      <c r="L84" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_attacking_1_per_3 int,</v>
+      </c>
       <c r="M84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_attacking_1_per_3 int,</v>
       </c>
     </row>
@@ -4793,13 +5112,13 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D85" t="s">
-        <v>424</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>515</v>
+        <v>422</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F85" t="s">
         <v>328</v>
@@ -4813,8 +5132,12 @@
       <c r="J85" t="s">
         <v>328</v>
       </c>
+      <c r="L85" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_attacking_ppa int,</v>
+      </c>
       <c r="M85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_attacking_ppa int,</v>
       </c>
     </row>
@@ -4826,13 +5149,13 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D86" t="s">
-        <v>425</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>515</v>
+        <v>423</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F86" t="s">
         <v>328</v>
@@ -4846,8 +5169,12 @@
       <c r="J86" t="s">
         <v>328</v>
       </c>
+      <c r="L86" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_attacking_crspa int,</v>
+      </c>
       <c r="M86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_attacking_crspa int,</v>
       </c>
     </row>
@@ -4859,13 +5186,13 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D87" t="s">
-        <v>426</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>515</v>
+        <v>424</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F87" t="s">
         <v>328</v>
@@ -4879,8 +5206,12 @@
       <c r="J87" t="s">
         <v>328</v>
       </c>
+      <c r="L87" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_attacking_prgp int,</v>
+      </c>
       <c r="M87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_attacking_prgp int,</v>
       </c>
     </row>
@@ -4892,7 +5223,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F88" t="s">
         <v>327</v>
@@ -4909,9 +5240,13 @@
       <c r="J88" t="s">
         <v>328</v>
       </c>
+      <c r="L88" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
       <c r="M88" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -4922,13 +5257,13 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D89" t="s">
-        <v>428</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>515</v>
+        <v>426</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F89" t="s">
         <v>328</v>
@@ -4942,8 +5277,12 @@
       <c r="J89" t="s">
         <v>328</v>
       </c>
+      <c r="L89" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_passtypes_live int,</v>
+      </c>
       <c r="M89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_passtypes_live int,</v>
       </c>
     </row>
@@ -4955,13 +5294,13 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D90" t="s">
-        <v>429</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>515</v>
+        <v>427</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F90" t="s">
         <v>328</v>
@@ -4975,8 +5314,12 @@
       <c r="J90" t="s">
         <v>328</v>
       </c>
+      <c r="L90" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_passtypes_dead int,</v>
+      </c>
       <c r="M90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_passtypes_dead int,</v>
       </c>
     </row>
@@ -4988,13 +5331,13 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D91" t="s">
-        <v>430</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>515</v>
+        <v>428</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F91" t="s">
         <v>328</v>
@@ -5008,8 +5351,12 @@
       <c r="J91" t="s">
         <v>328</v>
       </c>
+      <c r="L91" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_passtypes_fk int,</v>
+      </c>
       <c r="M91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_passtypes_fk int,</v>
       </c>
     </row>
@@ -5021,13 +5368,13 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D92" t="s">
-        <v>431</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>515</v>
+        <v>429</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F92" t="s">
         <v>328</v>
@@ -5041,8 +5388,12 @@
       <c r="J92" t="s">
         <v>328</v>
       </c>
+      <c r="L92" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_passtypes_tb int,</v>
+      </c>
       <c r="M92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_passtypes_tb int,</v>
       </c>
     </row>
@@ -5054,13 +5405,13 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D93" t="s">
-        <v>432</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>515</v>
+        <v>430</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F93" t="s">
         <v>328</v>
@@ -5074,8 +5425,12 @@
       <c r="J93" t="s">
         <v>328</v>
       </c>
+      <c r="L93" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_passtypes_sw int,</v>
+      </c>
       <c r="M93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_passtypes_sw int,</v>
       </c>
     </row>
@@ -5087,13 +5442,13 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D94" t="s">
-        <v>433</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>515</v>
+        <v>431</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F94" t="s">
         <v>328</v>
@@ -5107,8 +5462,12 @@
       <c r="J94" t="s">
         <v>328</v>
       </c>
+      <c r="L94" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_passtypes_crs int,</v>
+      </c>
       <c r="M94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_passtypes_crs int,</v>
       </c>
     </row>
@@ -5120,13 +5479,13 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D95" t="s">
-        <v>434</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>515</v>
+        <v>432</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F95" t="s">
         <v>328</v>
@@ -5140,8 +5499,12 @@
       <c r="J95" t="s">
         <v>328</v>
       </c>
+      <c r="L95" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_passtypes_ti int,</v>
+      </c>
       <c r="M95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_passtypes_ti int,</v>
       </c>
     </row>
@@ -5153,13 +5516,13 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D96" t="s">
-        <v>435</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>515</v>
+        <v>433</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F96" t="s">
         <v>328</v>
@@ -5173,8 +5536,12 @@
       <c r="J96" t="s">
         <v>328</v>
       </c>
+      <c r="L96" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_passtypes_ck int,</v>
+      </c>
       <c r="M96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_passtypes_ck int,</v>
       </c>
     </row>
@@ -5186,13 +5553,13 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D97" t="s">
-        <v>436</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>515</v>
+        <v>434</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F97" t="s">
         <v>328</v>
@@ -5206,8 +5573,12 @@
       <c r="J97" t="s">
         <v>328</v>
       </c>
+      <c r="L97" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_cornerkicks_in int,</v>
+      </c>
       <c r="M97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_cornerkicks_in int,</v>
       </c>
     </row>
@@ -5219,13 +5590,13 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D98" t="s">
-        <v>437</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>515</v>
+        <v>435</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F98" t="s">
         <v>328</v>
@@ -5239,8 +5610,12 @@
       <c r="J98" t="s">
         <v>328</v>
       </c>
+      <c r="L98" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_cornerkicks_out int,</v>
+      </c>
       <c r="M98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_cornerkicks_out int,</v>
       </c>
     </row>
@@ -5252,13 +5627,13 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D99" t="s">
-        <v>438</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>515</v>
+        <v>436</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F99" t="s">
         <v>328</v>
@@ -5272,8 +5647,12 @@
       <c r="J99" t="s">
         <v>328</v>
       </c>
+      <c r="L99" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_cornerkicks_str int,</v>
+      </c>
       <c r="M99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_cornerkicks_str int,</v>
       </c>
     </row>
@@ -5285,7 +5664,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F100" t="s">
         <v>327</v>
@@ -5302,9 +5681,13 @@
       <c r="J100" t="s">
         <v>328</v>
       </c>
+      <c r="L100" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
       <c r="M100" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> ,</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -5315,13 +5698,13 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D101" t="s">
-        <v>440</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>515</v>
+        <v>438</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F101" t="s">
         <v>328</v>
@@ -5335,8 +5718,12 @@
       <c r="J101" t="s">
         <v>328</v>
       </c>
+      <c r="L101" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_outcomes_off int,</v>
+      </c>
       <c r="M101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_outcomes_off int,</v>
       </c>
     </row>
@@ -5348,13 +5735,13 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D102" t="s">
-        <v>441</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>515</v>
+        <v>439</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F102" t="s">
         <v>328</v>
@@ -5368,8 +5755,12 @@
       <c r="J102" t="s">
         <v>328</v>
       </c>
+      <c r="L102" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>passing_types_outcomes_blocks int,</v>
+      </c>
       <c r="M102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>passing_types_outcomes_blocks int,</v>
       </c>
     </row>
@@ -5381,13 +5772,13 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D103" t="s">
-        <v>442</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>515</v>
+        <v>440</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F103" t="s">
         <v>328</v>
@@ -5401,8 +5792,12 @@
       <c r="J103" t="s">
         <v>328</v>
       </c>
+      <c r="L103" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_scatypes_sca int,</v>
+      </c>
       <c r="M103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_scatypes_sca int,</v>
       </c>
     </row>
@@ -5414,13 +5809,13 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D104" t="s">
-        <v>443</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>515</v>
+        <v>441</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F104" t="s">
         <v>328</v>
@@ -5434,8 +5829,12 @@
       <c r="J104" t="s">
         <v>328</v>
       </c>
+      <c r="L104" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_scatypes_passlive int,</v>
+      </c>
       <c r="M104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_scatypes_passlive int,</v>
       </c>
     </row>
@@ -5447,13 +5846,13 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D105" t="s">
-        <v>444</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>515</v>
+        <v>442</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F105" t="s">
         <v>328</v>
@@ -5467,8 +5866,12 @@
       <c r="J105" t="s">
         <v>328</v>
       </c>
+      <c r="L105" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_scatypes_passdead int,</v>
+      </c>
       <c r="M105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_scatypes_passdead int,</v>
       </c>
     </row>
@@ -5480,13 +5883,13 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D106" t="s">
-        <v>445</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>515</v>
+        <v>443</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F106" t="s">
         <v>328</v>
@@ -5500,8 +5903,12 @@
       <c r="J106" t="s">
         <v>328</v>
       </c>
+      <c r="L106" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_scatypes_to int,</v>
+      </c>
       <c r="M106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_scatypes_to int,</v>
       </c>
     </row>
@@ -5513,13 +5920,13 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D107" t="s">
-        <v>446</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>515</v>
+        <v>444</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F107" t="s">
         <v>328</v>
@@ -5533,8 +5940,12 @@
       <c r="J107" t="s">
         <v>328</v>
       </c>
+      <c r="L107" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_scatypes_sh int,</v>
+      </c>
       <c r="M107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_scatypes_sh int,</v>
       </c>
     </row>
@@ -5546,13 +5957,13 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D108" t="s">
-        <v>447</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>515</v>
+        <v>445</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F108" t="s">
         <v>328</v>
@@ -5566,8 +5977,12 @@
       <c r="J108" t="s">
         <v>328</v>
       </c>
+      <c r="L108" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_scatypes_fld int,</v>
+      </c>
       <c r="M108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_scatypes_fld int,</v>
       </c>
     </row>
@@ -5579,13 +5994,13 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D109" t="s">
-        <v>448</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>515</v>
+        <v>446</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F109" t="s">
         <v>328</v>
@@ -5599,8 +6014,12 @@
       <c r="J109" t="s">
         <v>328</v>
       </c>
+      <c r="L109" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_scatypes_def int,</v>
+      </c>
       <c r="M109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_scatypes_def int,</v>
       </c>
     </row>
@@ -5612,13 +6031,13 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D110" t="s">
-        <v>449</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>515</v>
+        <v>447</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F110" t="s">
         <v>328</v>
@@ -5632,8 +6051,12 @@
       <c r="J110" t="s">
         <v>328</v>
       </c>
+      <c r="L110" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_gcatypes_gca int,</v>
+      </c>
       <c r="M110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_gcatypes_gca int,</v>
       </c>
     </row>
@@ -5645,13 +6068,13 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D111" t="s">
-        <v>450</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>515</v>
+        <v>448</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F111" t="s">
         <v>328</v>
@@ -5665,8 +6088,12 @@
       <c r="J111" t="s">
         <v>328</v>
       </c>
+      <c r="L111" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_gcatypes_passlive int,</v>
+      </c>
       <c r="M111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_gcatypes_passlive int,</v>
       </c>
     </row>
@@ -5678,13 +6105,13 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D112" t="s">
-        <v>451</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>515</v>
+        <v>449</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F112" t="s">
         <v>328</v>
@@ -5698,8 +6125,12 @@
       <c r="J112" t="s">
         <v>328</v>
       </c>
+      <c r="L112" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_gcatypes_passdead int,</v>
+      </c>
       <c r="M112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_gcatypes_passdead int,</v>
       </c>
     </row>
@@ -5711,13 +6142,13 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D113" t="s">
-        <v>452</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>515</v>
+        <v>450</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F113" t="s">
         <v>328</v>
@@ -5731,8 +6162,12 @@
       <c r="J113" t="s">
         <v>328</v>
       </c>
+      <c r="L113" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_gcatypes_to int,</v>
+      </c>
       <c r="M113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_gcatypes_to int,</v>
       </c>
     </row>
@@ -5744,13 +6179,13 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D114" t="s">
-        <v>453</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>515</v>
+        <v>451</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F114" t="s">
         <v>328</v>
@@ -5764,8 +6199,12 @@
       <c r="J114" t="s">
         <v>328</v>
       </c>
+      <c r="L114" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_gcatypes_sh int,</v>
+      </c>
       <c r="M114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_gcatypes_sh int,</v>
       </c>
     </row>
@@ -5777,13 +6216,13 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D115" t="s">
-        <v>454</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>515</v>
+        <v>452</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F115" t="s">
         <v>328</v>
@@ -5797,8 +6236,12 @@
       <c r="J115" t="s">
         <v>328</v>
       </c>
+      <c r="L115" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_gcatypes_fld int,</v>
+      </c>
       <c r="M115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_gcatypes_fld int,</v>
       </c>
     </row>
@@ -5810,13 +6253,13 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D116" t="s">
-        <v>455</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>515</v>
+        <v>453</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F116" t="s">
         <v>328</v>
@@ -5830,8 +6273,12 @@
       <c r="J116" t="s">
         <v>328</v>
       </c>
+      <c r="L116" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>gca_gcatypes_def int,</v>
+      </c>
       <c r="M116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>gca_gcatypes_def int,</v>
       </c>
     </row>
@@ -5843,13 +6290,13 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D117" t="s">
-        <v>456</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>515</v>
+        <v>454</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F117" t="s">
         <v>328</v>
@@ -5863,8 +6310,12 @@
       <c r="J117" t="s">
         <v>328</v>
       </c>
+      <c r="L117" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_tackles_tkl int,</v>
+      </c>
       <c r="M117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_tackles_tkl int,</v>
       </c>
     </row>
@@ -5876,13 +6327,13 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D118" t="s">
-        <v>457</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>515</v>
+        <v>455</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F118" t="s">
         <v>328</v>
@@ -5896,8 +6347,12 @@
       <c r="J118" t="s">
         <v>328</v>
       </c>
+      <c r="L118" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_tackles_tklw int,</v>
+      </c>
       <c r="M118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_tackles_tklw int,</v>
       </c>
     </row>
@@ -5909,13 +6364,13 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D119" t="s">
-        <v>458</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>515</v>
+        <v>456</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F119" t="s">
         <v>328</v>
@@ -5929,8 +6384,12 @@
       <c r="J119" t="s">
         <v>328</v>
       </c>
+      <c r="L119" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_tackles_def3rd int,</v>
+      </c>
       <c r="M119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_tackles_def3rd int,</v>
       </c>
     </row>
@@ -5942,13 +6401,13 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D120" t="s">
-        <v>459</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>515</v>
+        <v>457</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F120" t="s">
         <v>328</v>
@@ -5962,8 +6421,12 @@
       <c r="J120" t="s">
         <v>328</v>
       </c>
+      <c r="L120" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_tackles_mid3rd int,</v>
+      </c>
       <c r="M120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_tackles_mid3rd int,</v>
       </c>
     </row>
@@ -5975,13 +6438,13 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D121" t="s">
-        <v>460</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>515</v>
+        <v>458</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F121" t="s">
         <v>328</v>
@@ -5995,8 +6458,12 @@
       <c r="J121" t="s">
         <v>328</v>
       </c>
+      <c r="L121" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_tackles_att3rd int,</v>
+      </c>
       <c r="M121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_tackles_att3rd int,</v>
       </c>
     </row>
@@ -6008,13 +6475,13 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D122" t="s">
-        <v>461</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>515</v>
+        <v>459</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F122" t="s">
         <v>328</v>
@@ -6028,8 +6495,12 @@
       <c r="J122" t="s">
         <v>328</v>
       </c>
+      <c r="L122" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_challenges_tkl int,</v>
+      </c>
       <c r="M122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_challenges_tkl int,</v>
       </c>
     </row>
@@ -6041,13 +6512,13 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D123" t="s">
-        <v>462</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>515</v>
+        <v>460</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F123" t="s">
         <v>328</v>
@@ -6061,8 +6532,12 @@
       <c r="J123" t="s">
         <v>328</v>
       </c>
+      <c r="L123" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_challenges_att int,</v>
+      </c>
       <c r="M123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_challenges_att int,</v>
       </c>
     </row>
@@ -6074,13 +6549,13 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D124" t="s">
-        <v>463</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>516</v>
+        <v>461</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F124" t="s">
         <v>328</v>
@@ -6094,8 +6569,12 @@
       <c r="J124" t="s">
         <v>328</v>
       </c>
+      <c r="L124" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_challenges_tkl_perc float,</v>
+      </c>
       <c r="M124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_challenges_tkl_perc float,</v>
       </c>
     </row>
@@ -6107,13 +6586,13 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D125" t="s">
-        <v>464</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>515</v>
+        <v>462</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F125" t="s">
         <v>328</v>
@@ -6127,8 +6606,12 @@
       <c r="J125" t="s">
         <v>328</v>
       </c>
+      <c r="L125" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_challenges_lost int,</v>
+      </c>
       <c r="M125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_challenges_lost int,</v>
       </c>
     </row>
@@ -6140,13 +6623,13 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D126" t="s">
-        <v>465</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>515</v>
+        <v>463</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F126" t="s">
         <v>328</v>
@@ -6160,8 +6643,12 @@
       <c r="J126" t="s">
         <v>328</v>
       </c>
+      <c r="L126" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_blocks_blocks int,</v>
+      </c>
       <c r="M126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_blocks_blocks int,</v>
       </c>
     </row>
@@ -6173,13 +6660,13 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D127" t="s">
-        <v>466</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>515</v>
+        <v>464</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F127" t="s">
         <v>328</v>
@@ -6193,8 +6680,12 @@
       <c r="J127" t="s">
         <v>328</v>
       </c>
+      <c r="L127" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_blocks_sh int,</v>
+      </c>
       <c r="M127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_blocks_sh int,</v>
       </c>
     </row>
@@ -6206,13 +6697,13 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D128" t="s">
-        <v>467</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>515</v>
+        <v>465</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F128" t="s">
         <v>328</v>
@@ -6226,8 +6717,12 @@
       <c r="J128" t="s">
         <v>328</v>
       </c>
+      <c r="L128" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_blocks_pass int,</v>
+      </c>
       <c r="M128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_blocks_pass int,</v>
       </c>
     </row>
@@ -6239,13 +6734,13 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D129" t="s">
-        <v>468</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>515</v>
+        <v>466</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F129" t="s">
         <v>328</v>
@@ -6259,8 +6754,12 @@
       <c r="J129" t="s">
         <v>328</v>
       </c>
+      <c r="L129" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_general_int int,</v>
+      </c>
       <c r="M129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_general_int int,</v>
       </c>
     </row>
@@ -6272,13 +6771,13 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D130" t="s">
-        <v>469</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>515</v>
+        <v>467</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F130" t="s">
         <v>328</v>
@@ -6292,8 +6791,12 @@
       <c r="J130" t="s">
         <v>328</v>
       </c>
+      <c r="L130" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>defense_general_tkl_plus_int int,</v>
+      </c>
       <c r="M130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>defense_general_tkl_plus_int int,</v>
       </c>
     </row>
@@ -6305,13 +6808,13 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D131" t="s">
-        <v>470</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>515</v>
+        <v>468</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F131" t="s">
         <v>328</v>
@@ -6325,8 +6828,12 @@
       <c r="J131" t="s">
         <v>328</v>
       </c>
+      <c r="L131" s="6" t="str">
+        <f t="shared" ref="L131:L171" si="4">_xlfn.CONCAT(D131," ",E131,",")</f>
+        <v>defense_general_clr int,</v>
+      </c>
       <c r="M131" t="str">
-        <f t="shared" ref="M131:M171" si="2">_xlfn.CONCAT(D131," ",E131,",")</f>
+        <f t="shared" ref="M131:M171" si="5">IF(L131=" ,","",L131)</f>
         <v>defense_general_clr int,</v>
       </c>
     </row>
@@ -6338,13 +6845,13 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D132" t="s">
-        <v>471</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>515</v>
+        <v>469</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F132" t="s">
         <v>328</v>
@@ -6358,8 +6865,12 @@
       <c r="J132" t="s">
         <v>328</v>
       </c>
+      <c r="L132" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>defense_general_err int,</v>
+      </c>
       <c r="M132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>defense_general_err int,</v>
       </c>
     </row>
@@ -6371,13 +6882,13 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D133" t="s">
-        <v>472</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>516</v>
+        <v>470</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F133" t="s">
         <v>328</v>
@@ -6391,8 +6902,12 @@
       <c r="J133" t="s">
         <v>328</v>
       </c>
+      <c r="L133" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_general_poss float,</v>
+      </c>
       <c r="M133" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_general_poss float,</v>
       </c>
     </row>
@@ -6404,13 +6919,13 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D134" t="s">
-        <v>473</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>515</v>
+        <v>471</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F134" t="s">
         <v>328</v>
@@ -6424,8 +6939,12 @@
       <c r="J134" t="s">
         <v>328</v>
       </c>
+      <c r="L134" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_touches_touches int,</v>
+      </c>
       <c r="M134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_touches_touches int,</v>
       </c>
     </row>
@@ -6437,13 +6956,13 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D135" t="s">
-        <v>474</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>515</v>
+        <v>472</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F135" t="s">
         <v>328</v>
@@ -6457,8 +6976,12 @@
       <c r="J135" t="s">
         <v>328</v>
       </c>
+      <c r="L135" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_touches_defpen int,</v>
+      </c>
       <c r="M135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_touches_defpen int,</v>
       </c>
     </row>
@@ -6470,13 +6993,13 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D136" t="s">
-        <v>475</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>515</v>
+        <v>473</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F136" t="s">
         <v>328</v>
@@ -6490,8 +7013,12 @@
       <c r="J136" t="s">
         <v>328</v>
       </c>
+      <c r="L136" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_touches_def3rd int,</v>
+      </c>
       <c r="M136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_touches_def3rd int,</v>
       </c>
     </row>
@@ -6503,13 +7030,13 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D137" t="s">
-        <v>476</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>515</v>
+        <v>474</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F137" t="s">
         <v>328</v>
@@ -6523,8 +7050,12 @@
       <c r="J137" t="s">
         <v>328</v>
       </c>
+      <c r="L137" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_touches_mid3rd int,</v>
+      </c>
       <c r="M137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_touches_mid3rd int,</v>
       </c>
     </row>
@@ -6536,13 +7067,13 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D138" t="s">
-        <v>477</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>515</v>
+        <v>475</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F138" t="s">
         <v>328</v>
@@ -6556,8 +7087,12 @@
       <c r="J138" t="s">
         <v>328</v>
       </c>
+      <c r="L138" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_touches_att3rd int,</v>
+      </c>
       <c r="M138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_touches_att3rd int,</v>
       </c>
     </row>
@@ -6569,13 +7104,13 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D139" t="s">
-        <v>478</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>515</v>
+        <v>476</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F139" t="s">
         <v>328</v>
@@ -6589,8 +7124,12 @@
       <c r="J139" t="s">
         <v>328</v>
       </c>
+      <c r="L139" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_touches_attpen int,</v>
+      </c>
       <c r="M139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_touches_attpen int,</v>
       </c>
     </row>
@@ -6602,13 +7141,13 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D140" t="s">
-        <v>479</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>515</v>
+        <v>477</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F140" t="s">
         <v>328</v>
@@ -6622,8 +7161,12 @@
       <c r="J140" t="s">
         <v>328</v>
       </c>
+      <c r="L140" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_touches_live int,</v>
+      </c>
       <c r="M140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_touches_live int,</v>
       </c>
     </row>
@@ -6635,13 +7178,13 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D141" t="s">
-        <v>480</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>515</v>
+        <v>478</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F141" t="s">
         <v>328</v>
@@ -6655,8 +7198,12 @@
       <c r="J141" t="s">
         <v>328</v>
       </c>
+      <c r="L141" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_takeons_att int,</v>
+      </c>
       <c r="M141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_takeons_att int,</v>
       </c>
     </row>
@@ -6668,13 +7215,13 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D142" t="s">
-        <v>481</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>515</v>
+        <v>479</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F142" t="s">
         <v>328</v>
@@ -6688,8 +7235,12 @@
       <c r="J142" t="s">
         <v>328</v>
       </c>
+      <c r="L142" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_takeons_succ int,</v>
+      </c>
       <c r="M142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_takeons_succ int,</v>
       </c>
     </row>
@@ -6701,13 +7252,13 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D143" t="s">
-        <v>482</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>516</v>
+        <v>480</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F143" t="s">
         <v>328</v>
@@ -6721,8 +7272,12 @@
       <c r="J143" t="s">
         <v>328</v>
       </c>
+      <c r="L143" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_takeons_succ_perc float,</v>
+      </c>
       <c r="M143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_takeons_succ_perc float,</v>
       </c>
     </row>
@@ -6734,13 +7289,13 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D144" t="s">
-        <v>483</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>515</v>
+        <v>481</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F144" t="s">
         <v>328</v>
@@ -6754,8 +7309,12 @@
       <c r="J144" t="s">
         <v>328</v>
       </c>
+      <c r="L144" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_takeons_tkld int,</v>
+      </c>
       <c r="M144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_takeons_tkld int,</v>
       </c>
     </row>
@@ -6767,13 +7326,13 @@
         <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D145" t="s">
-        <v>484</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>516</v>
+        <v>482</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F145" t="s">
         <v>328</v>
@@ -6787,8 +7346,12 @@
       <c r="J145" t="s">
         <v>328</v>
       </c>
+      <c r="L145" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_takeons_tkld_perc float,</v>
+      </c>
       <c r="M145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_takeons_tkld_perc float,</v>
       </c>
     </row>
@@ -6800,13 +7363,13 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D146" t="s">
-        <v>485</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>515</v>
+        <v>483</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F146" t="s">
         <v>328</v>
@@ -6820,8 +7383,12 @@
       <c r="J146" t="s">
         <v>328</v>
       </c>
+      <c r="L146" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_carries_carries int,</v>
+      </c>
       <c r="M146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_carries_carries int,</v>
       </c>
     </row>
@@ -6833,13 +7400,13 @@
         <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D147" t="s">
-        <v>486</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>516</v>
+        <v>484</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F147" t="s">
         <v>328</v>
@@ -6853,8 +7420,12 @@
       <c r="J147" t="s">
         <v>328</v>
       </c>
+      <c r="L147" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_carries_totdist float,</v>
+      </c>
       <c r="M147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_carries_totdist float,</v>
       </c>
     </row>
@@ -6866,13 +7437,13 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D148" t="s">
-        <v>487</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>516</v>
+        <v>485</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F148" t="s">
         <v>328</v>
@@ -6886,8 +7457,12 @@
       <c r="J148" t="s">
         <v>328</v>
       </c>
+      <c r="L148" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_carries_prgdist float,</v>
+      </c>
       <c r="M148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_carries_prgdist float,</v>
       </c>
     </row>
@@ -6899,13 +7474,13 @@
         <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D149" t="s">
-        <v>488</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>515</v>
+        <v>486</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F149" t="s">
         <v>328</v>
@@ -6919,8 +7494,12 @@
       <c r="J149" t="s">
         <v>328</v>
       </c>
+      <c r="L149" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_carries_prgc int,</v>
+      </c>
       <c r="M149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_carries_prgc int,</v>
       </c>
     </row>
@@ -6932,13 +7511,13 @@
         <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D150" t="s">
-        <v>489</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>515</v>
+        <v>487</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F150" t="s">
         <v>328</v>
@@ -6952,8 +7531,12 @@
       <c r="J150" t="s">
         <v>328</v>
       </c>
+      <c r="L150" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_carries_1_per_3 int,</v>
+      </c>
       <c r="M150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_carries_1_per_3 int,</v>
       </c>
     </row>
@@ -6965,13 +7548,13 @@
         <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D151" t="s">
-        <v>490</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>515</v>
+        <v>488</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F151" t="s">
         <v>328</v>
@@ -6985,8 +7568,12 @@
       <c r="J151" t="s">
         <v>328</v>
       </c>
+      <c r="L151" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_carries_cpa int,</v>
+      </c>
       <c r="M151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_carries_cpa int,</v>
       </c>
     </row>
@@ -6998,13 +7585,13 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D152" t="s">
-        <v>491</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>515</v>
+        <v>489</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F152" t="s">
         <v>328</v>
@@ -7018,8 +7605,12 @@
       <c r="J152" t="s">
         <v>328</v>
       </c>
+      <c r="L152" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_carries_mis int,</v>
+      </c>
       <c r="M152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_carries_mis int,</v>
       </c>
     </row>
@@ -7031,13 +7622,13 @@
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D153" t="s">
-        <v>492</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>515</v>
+        <v>490</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F153" t="s">
         <v>328</v>
@@ -7051,8 +7642,12 @@
       <c r="J153" t="s">
         <v>328</v>
       </c>
+      <c r="L153" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_carries_dis int,</v>
+      </c>
       <c r="M153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_carries_dis int,</v>
       </c>
     </row>
@@ -7064,13 +7659,13 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D154" t="s">
-        <v>493</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>515</v>
+        <v>491</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F154" t="s">
         <v>328</v>
@@ -7084,8 +7679,12 @@
       <c r="J154" t="s">
         <v>328</v>
       </c>
+      <c r="L154" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_receiving_rec int,</v>
+      </c>
       <c r="M154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_receiving_rec int,</v>
       </c>
     </row>
@@ -7097,13 +7696,13 @@
         <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D155" t="s">
-        <v>494</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>515</v>
+        <v>492</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F155" t="s">
         <v>328</v>
@@ -7117,8 +7716,12 @@
       <c r="J155" t="s">
         <v>328</v>
       </c>
+      <c r="L155" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>possession_receiving_prgr int,</v>
+      </c>
       <c r="M155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>possession_receiving_prgr int,</v>
       </c>
     </row>
@@ -7130,13 +7733,13 @@
         <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D156" t="s">
-        <v>495</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>515</v>
+        <v>493</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F156" t="s">
         <v>328</v>
@@ -7150,8 +7753,12 @@
       <c r="J156" t="s">
         <v>328</v>
       </c>
+      <c r="L156" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_performance_crdy int,</v>
+      </c>
       <c r="M156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_performance_crdy int,</v>
       </c>
     </row>
@@ -7163,13 +7770,13 @@
         <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D157" t="s">
-        <v>496</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>515</v>
+        <v>494</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F157" t="s">
         <v>328</v>
@@ -7183,8 +7790,12 @@
       <c r="J157" t="s">
         <v>328</v>
       </c>
+      <c r="L157" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_performance_crdr int,</v>
+      </c>
       <c r="M157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_performance_crdr int,</v>
       </c>
     </row>
@@ -7196,13 +7807,13 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D158" t="s">
-        <v>497</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>515</v>
+        <v>495</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F158" t="s">
         <v>328</v>
@@ -7216,8 +7827,12 @@
       <c r="J158" t="s">
         <v>328</v>
       </c>
+      <c r="L158" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_performance_2crdy int,</v>
+      </c>
       <c r="M158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_performance_2crdy int,</v>
       </c>
     </row>
@@ -7229,13 +7844,13 @@
         <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D159" t="s">
-        <v>498</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>515</v>
+        <v>496</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F159" t="s">
         <v>328</v>
@@ -7249,8 +7864,12 @@
       <c r="J159" t="s">
         <v>328</v>
       </c>
+      <c r="L159" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_performance_fls int,</v>
+      </c>
       <c r="M159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_performance_fls int,</v>
       </c>
     </row>
@@ -7262,13 +7881,13 @@
         <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D160" t="s">
-        <v>499</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>515</v>
+        <v>497</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F160" t="s">
         <v>328</v>
@@ -7282,8 +7901,12 @@
       <c r="J160" t="s">
         <v>328</v>
       </c>
+      <c r="L160" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_performance_fld int,</v>
+      </c>
       <c r="M160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_performance_fld int,</v>
       </c>
     </row>
@@ -7295,13 +7918,13 @@
         <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D161" t="s">
-        <v>500</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>515</v>
+        <v>498</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F161" t="s">
         <v>328</v>
@@ -7315,8 +7938,12 @@
       <c r="J161" t="s">
         <v>328</v>
       </c>
+      <c r="L161" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_performance_off int,</v>
+      </c>
       <c r="M161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_performance_off int,</v>
       </c>
     </row>
@@ -7328,7 +7955,7 @@
         <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F162" t="s">
         <v>327</v>
@@ -7345,9 +7972,13 @@
       <c r="J162" t="s">
         <v>328</v>
       </c>
+      <c r="L162" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
       <c r="M162" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -7358,7 +7989,7 @@
         <v>161</v>
       </c>
       <c r="C163" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F163" t="s">
         <v>327</v>
@@ -7375,9 +8006,13 @@
       <c r="J163" t="s">
         <v>328</v>
       </c>
+      <c r="L163" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
       <c r="M163" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -7388,7 +8023,7 @@
         <v>162</v>
       </c>
       <c r="C164" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F164" t="s">
         <v>327</v>
@@ -7405,9 +8040,13 @@
       <c r="J164" t="s">
         <v>328</v>
       </c>
+      <c r="L164" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
       <c r="M164" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -7418,7 +8057,7 @@
         <v>163</v>
       </c>
       <c r="C165" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F165" t="s">
         <v>327</v>
@@ -7435,9 +8074,13 @@
       <c r="J165" t="s">
         <v>328</v>
       </c>
+      <c r="L165" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
       <c r="M165" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -7448,7 +8091,7 @@
         <v>164</v>
       </c>
       <c r="C166" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F166" t="s">
         <v>327</v>
@@ -7465,9 +8108,13 @@
       <c r="J166" t="s">
         <v>328</v>
       </c>
+      <c r="L166" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> ,</v>
+      </c>
       <c r="M166" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> ,</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -7478,13 +8125,13 @@
         <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D167" t="s">
-        <v>506</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>515</v>
+        <v>504</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F167" t="s">
         <v>328</v>
@@ -7498,8 +8145,12 @@
       <c r="J167" t="s">
         <v>328</v>
       </c>
+      <c r="L167" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_performance_og int,</v>
+      </c>
       <c r="M167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_performance_og int,</v>
       </c>
     </row>
@@ -7511,13 +8162,13 @@
         <v>166</v>
       </c>
       <c r="C168" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D168" t="s">
-        <v>507</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>515</v>
+        <v>505</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F168" t="s">
         <v>328</v>
@@ -7531,8 +8182,12 @@
       <c r="J168" t="s">
         <v>328</v>
       </c>
+      <c r="L168" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_performance_recov int,</v>
+      </c>
       <c r="M168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_performance_recov int,</v>
       </c>
     </row>
@@ -7544,13 +8199,13 @@
         <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D169" t="s">
-        <v>508</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>515</v>
+        <v>506</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F169" t="s">
         <v>328</v>
@@ -7564,8 +8219,12 @@
       <c r="J169" t="s">
         <v>328</v>
       </c>
+      <c r="L169" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_aerialduels_won int,</v>
+      </c>
       <c r="M169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_aerialduels_won int,</v>
       </c>
     </row>
@@ -7577,13 +8236,13 @@
         <v>168</v>
       </c>
       <c r="C170" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D170" t="s">
-        <v>509</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="F170" t="s">
         <v>328</v>
@@ -7597,8 +8256,12 @@
       <c r="J170" t="s">
         <v>328</v>
       </c>
+      <c r="L170" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_aerialduels_lost int,</v>
+      </c>
       <c r="M170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_aerialduels_lost int,</v>
       </c>
     </row>
@@ -7610,13 +8273,13 @@
         <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D171" t="s">
-        <v>510</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="F171" t="s">
         <v>328</v>
@@ -7630,8 +8293,12 @@
       <c r="J171" t="s">
         <v>328</v>
       </c>
+      <c r="L171" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>misc_aerialduels_won_perc float,</v>
+      </c>
       <c r="M171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>misc_aerialduels_won_perc float,</v>
       </c>
     </row>
